--- a/docs/surf_current_data_directory.xlsx
+++ b/docs/surf_current_data_directory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neilmalan/Google_Drive/UNSW_postdoc/bluebottle-surface-currents/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76D0EA09-4028-BE4D-8A39-48EAABD0CAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830B6FD1-597A-E448-BCD5-B68BA6B36C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1960" yWindow="720" windowWidth="36220" windowHeight="17420" xr2:uid="{32351966-3CF5-CE46-8B1C-D1B00D149974}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -72,6 +72,81 @@
   </si>
   <si>
     <t>IMOS gliders</t>
+  </si>
+  <si>
+    <t>0-200 m</t>
+  </si>
+  <si>
+    <t>AODN</t>
+  </si>
+  <si>
+    <t>SIMP drifters 2010</t>
+  </si>
+  <si>
+    <t>drifter</t>
+  </si>
+  <si>
+    <t>SADCP</t>
+  </si>
+  <si>
+    <t>radar</t>
+  </si>
+  <si>
+    <t>glider</t>
+  </si>
+  <si>
+    <t>sci-maths-ocean/shared/SIMP_Nov2010/DATA/PROCESSED/DRIFTER/</t>
+  </si>
+  <si>
+    <t>15m</t>
+  </si>
+  <si>
+    <t>surface</t>
+  </si>
+  <si>
+    <t>SIMP ADCP 2010</t>
+  </si>
+  <si>
+    <t>sci-maths-ocean/shared/SIMP_Nov2010/DATA/PROCESSED/ADCP/</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>unknown format .mmt and .0000?</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>SIMP CTD 2010</t>
+  </si>
+  <si>
+    <t>CTD</t>
+  </si>
+  <si>
+    <t>sci-maths-ocean/shared/SIMP_Nov2010/DATA/PROCESSED/CTD/</t>
+  </si>
+  <si>
+    <t>stored as .cnv files</t>
+  </si>
+  <si>
+    <t>SIMP ADCP 2011</t>
+  </si>
+  <si>
+    <t>stored as .txt files?</t>
+  </si>
+  <si>
+    <t>sci-maths-ocean/shared/SIMP_June2011/DATA/PROCESSED/ADCP/</t>
+  </si>
+  <si>
+    <t>SIMP CTD 2011</t>
+  </si>
+  <si>
+    <t>sci-maths-ocean/shared/SIMP_June2011/DATA/PROCESSED/CTD/</t>
+  </si>
+  <si>
+    <t>stored as cnv files</t>
   </si>
 </sst>
 </file>
@@ -127,7 +202,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -415,7 +490,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -423,18 +498,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E228C0-4F9E-284D-A3CC-144EA2249BEA}">
-  <dimension ref="A2:F8"/>
+  <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="6" max="6" width="59" customWidth="1"/>
+    <col min="7" max="7" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -453,35 +530,153 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
